--- a/LighthouseResults.xlsx
+++ b/LighthouseResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="267">
   <si>
     <t>Date</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Speed Index</t>
   </si>
   <si>
-    <t>2024-09-12</t>
+    <t>2024-10-25</t>
   </si>
   <si>
     <t>EN PV Home Merck</t>
@@ -59,684 +59,735 @@
     <t>https://www.merckmanuals.com/professional</t>
   </si>
   <si>
-    <t>2.8 s</t>
+    <t>2.5 s</t>
+  </si>
+  <si>
+    <t>8.1 s</t>
+  </si>
+  <si>
+    <t>120 ms</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>3.5 s</t>
+  </si>
+  <si>
+    <t>EN PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/professional</t>
+  </si>
+  <si>
+    <t>2.1 s</t>
   </si>
   <si>
     <t>7.3 s</t>
   </si>
   <si>
+    <t>110 ms</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>3.9 s</t>
+  </si>
+  <si>
+    <t>DE PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/profi</t>
+  </si>
+  <si>
+    <t>3.1 s</t>
+  </si>
+  <si>
+    <t>8.0 s</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4.5 s</t>
+  </si>
+  <si>
+    <t>ES PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/professional</t>
+  </si>
+  <si>
+    <t>7.5 s</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>FR PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/professional</t>
+  </si>
+  <si>
+    <t>7.8 s</t>
+  </si>
+  <si>
+    <t>3.4 s</t>
+  </si>
+  <si>
+    <t>IT PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/professionale</t>
+  </si>
+  <si>
+    <t>9.3 s</t>
+  </si>
+  <si>
+    <t>5.0 s</t>
+  </si>
+  <si>
+    <t>JA PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/professional</t>
+  </si>
+  <si>
+    <t>1.7 s</t>
+  </si>
+  <si>
+    <t>7.4 s</t>
+  </si>
+  <si>
+    <t>150 ms</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>4.0 s</t>
+  </si>
+  <si>
+    <t>PT PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/profissional</t>
+  </si>
+  <si>
     <t>90 ms</t>
   </si>
   <si>
-    <t>0.004</t>
+    <t>4.3 s</t>
+  </si>
+  <si>
+    <t>RU PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/professional</t>
+  </si>
+  <si>
+    <t>8.9 s</t>
+  </si>
+  <si>
+    <t>130 ms</t>
+  </si>
+  <si>
+    <t>4.7 s</t>
+  </si>
+  <si>
+    <t>CN PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/professional</t>
+  </si>
+  <si>
+    <t>9.6 s</t>
+  </si>
+  <si>
+    <t>170 ms</t>
+  </si>
+  <si>
+    <t>6.1 s</t>
+  </si>
+  <si>
+    <t>VI PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/vi/professional</t>
+  </si>
+  <si>
+    <t>1.6 s</t>
+  </si>
+  <si>
+    <t>6.9 s</t>
+  </si>
+  <si>
+    <t>EN CV Home Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/home</t>
+  </si>
+  <si>
+    <t>4.4 s</t>
+  </si>
+  <si>
+    <t>8.4 s</t>
+  </si>
+  <si>
+    <t>140 ms</t>
+  </si>
+  <si>
+    <t>EN CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/home</t>
+  </si>
+  <si>
+    <t>2.0 s</t>
+  </si>
+  <si>
+    <t>8.2 s</t>
+  </si>
+  <si>
+    <t>DE CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/heim</t>
+  </si>
+  <si>
+    <t>8.8 s</t>
+  </si>
+  <si>
+    <t>ES CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/hogar</t>
+  </si>
+  <si>
+    <t>FR CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/accueil</t>
+  </si>
+  <si>
+    <t>2.9 s</t>
+  </si>
+  <si>
+    <t>IT CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/casa</t>
+  </si>
+  <si>
+    <t>2.2 s</t>
+  </si>
+  <si>
+    <t>9.1 s</t>
+  </si>
+  <si>
+    <t>70 ms</t>
+  </si>
+  <si>
+    <t>4.2 s</t>
+  </si>
+  <si>
+    <t>JA CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/home</t>
+  </si>
+  <si>
+    <t>6.7 s</t>
+  </si>
+  <si>
+    <t>5.4 s</t>
+  </si>
+  <si>
+    <t>KO CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ko/home</t>
+  </si>
+  <si>
+    <t>6.3 s</t>
+  </si>
+  <si>
+    <t>100 ms</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>3.3 s</t>
+  </si>
+  <si>
+    <t>PT CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/casa</t>
+  </si>
+  <si>
+    <t>RU CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/home</t>
+  </si>
+  <si>
+    <t>7.0 s</t>
+  </si>
+  <si>
+    <t>CN CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/home</t>
+  </si>
+  <si>
+    <t>6.0 s</t>
+  </si>
+  <si>
+    <t>4.9 s</t>
+  </si>
+  <si>
+    <t>AR CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ar/home</t>
+  </si>
+  <si>
+    <t>7.1 s</t>
+  </si>
+  <si>
+    <t>190 ms</t>
+  </si>
+  <si>
+    <t>3.6 s</t>
+  </si>
+  <si>
+    <t>EN PV Acne Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris?query=acne</t>
+  </si>
+  <si>
+    <t>7.9 s</t>
+  </si>
+  <si>
+    <t>300 ms</t>
+  </si>
+  <si>
+    <t>EN PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/en-jp/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>5.7 s</t>
+  </si>
+  <si>
+    <t>9.4 s</t>
+  </si>
+  <si>
+    <t>560 ms</t>
+  </si>
+  <si>
+    <t>6.4 s</t>
+  </si>
+  <si>
+    <t>DE PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/profi/erkrankungen-der-haut/akne-und-verwandte-erkrankungen/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>2.6 s</t>
+  </si>
+  <si>
+    <t>4.6 s</t>
+  </si>
+  <si>
+    <t>230 ms</t>
+  </si>
+  <si>
+    <t>5.3 s</t>
+  </si>
+  <si>
+    <t>ES PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/professional/trastornos-dermatol%C3%B3gicos/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9-vulgar</t>
+  </si>
+  <si>
+    <t>FR PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/professional/troubles-dermatologiques/acn%C3%A9-et-pathologies-apparent%C3%A9es/acn%C3%A9-vulgaire</t>
+  </si>
+  <si>
+    <t>IT PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/professionale/disturbi-dermatologici/acne-e-disturbi-correlati/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>4.1 s</t>
+  </si>
+  <si>
+    <t>210 ms</t>
+  </si>
+  <si>
+    <t>JA PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/professional/14-%E7%9A%AE%E8%86%9A%E7%96%BE%E6%82%A3/%E3%81%96%E7%98%A1%E3%81%8A%E3%82%88%E3%81%B3%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E5%B0%8B%E5%B8%B8%E6%80%A7%E3%81%96%E7%98%A1</t>
+  </si>
+  <si>
+    <t>6.8 s</t>
+  </si>
+  <si>
+    <t>PT PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/profissional/dist%C3%BArbios-dermatol%C3%B3gicos/acne-e-doen%C3%A7as-relacionadas/acne-vulgar</t>
+  </si>
+  <si>
+    <t>250 ms</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>5.1 s</t>
+  </si>
+  <si>
+    <t>RU PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/professional/%D0%B4%D0%B5%D1%80%D0%BC%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F-%D0%BF%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%8F/%D0%B0%D0%BA%D0%BD%D0%B5-%D0%B8-%D1%81%D0%B2%D1%8F%D0%B7%D0%B0%D0%BD%D0%BD%D1%8B%D0%B5-%D1%81-%D0%BD%D0%B8%D0%BC%D0%B8-%D1%80%D0%B0%D1%81%D1%81%D1%82%D1%80%D0%BE%D0%B9%D1%81%D1%82%D0%B2%D0%B0/%D0%B2%D1%83%D0%BB%D1%8C%D0%B3%D0%B0%D1%80%D0%BD%D1%8B%D0%B5-%D1%83%D0%B3%D1%80%D0%B8</t>
+  </si>
+  <si>
+    <t>320 ms</t>
+  </si>
+  <si>
+    <t>CN PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>10.9 s</t>
+  </si>
+  <si>
+    <t>340 ms</t>
+  </si>
+  <si>
+    <t>VI PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/vi/professional/r%E1%BB%91i-lo%E1%BA%A1n-da-li%E1%BB%85u/tr%E1%BB%A9ng-c%C3%A1-v%C3%A0-c%C3%A1c-b%E1%BB%87nh-l%C3%BD-li%C3%AAn-quan/tr%E1%BB%A9ng-c%C3%A1</t>
+  </si>
+  <si>
+    <t>EN CV Acne Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/home/skin-disorders/acne-and-related-disorders/acne?query=acne</t>
+  </si>
+  <si>
+    <t>10.3 s</t>
+  </si>
+  <si>
+    <t>310 ms</t>
+  </si>
+  <si>
+    <t>5.9 s</t>
+  </si>
+  <si>
+    <t>EN CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/home/skin-disorders/acne-and-related-disorders/acne</t>
+  </si>
+  <si>
+    <t>13.2 s</t>
+  </si>
+  <si>
+    <t>280 ms</t>
+  </si>
+  <si>
+    <t>5.5 s</t>
+  </si>
+  <si>
+    <t>DE CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/heim/hauterkrankungen/akne-und-verwandte-erkrankungen/akne</t>
+  </si>
+  <si>
+    <t>10.1 s</t>
+  </si>
+  <si>
+    <t>200 ms</t>
+  </si>
+  <si>
+    <t>10.5 s</t>
+  </si>
+  <si>
+    <t>ES CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/hogar/trastornos-de-la-piel/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9</t>
+  </si>
+  <si>
+    <t>270 ms</t>
+  </si>
+  <si>
+    <t>FR CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/accueil/troubles-cutan%C3%A9s/acn%C3%A9-et-troubles-associ%C3%A9s/acn%C3%A9</t>
+  </si>
+  <si>
+    <t>9.2 s</t>
+  </si>
+  <si>
+    <t>IT CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/casa/patologie-della-cute/acne-e-disturbi-correlati/acne</t>
+  </si>
+  <si>
+    <t>2.4 s</t>
+  </si>
+  <si>
+    <t>11.3 s</t>
+  </si>
+  <si>
+    <t>JA CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/home/17-%E7%9A%AE%E8%86%9A%E3%81%AE%E7%97%85%E6%B0%97/%E3%81%AB%E3%81%8D%E3%81%B3%E3%81%A8%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E3%81%AB%E3%81%8D%E3%81%B3%EF%BC%88%E3%81%96%E7%98%A1%EF%BC%89</t>
+  </si>
+  <si>
+    <t>6.5 s</t>
+  </si>
+  <si>
+    <t>KO CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ko/home/%ED%94%BC%EB%B6%80-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84-%EB%B0%8F-%EA%B4%80%EB%A0%A8-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84</t>
+  </si>
+  <si>
+    <t>PT CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/casa/dist%C3%BArbios-da-pele/acne-e-dist%C3%BArbios-relacionados/acne</t>
+  </si>
+  <si>
+    <t>12.5 s</t>
+  </si>
+  <si>
+    <t>6.6 s</t>
+  </si>
+  <si>
+    <t>RU CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/home/%D0%BA%D0%BE%D0%B6%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C-%D0%B8-%D1%80%D0%BE%D0%B4%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C</t>
+  </si>
+  <si>
+    <t>10.2 s</t>
+  </si>
+  <si>
+    <t>290 ms</t>
+  </si>
+  <si>
+    <t>CN CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/home/skin-disorders/acne-and-related-disorders/acne</t>
+  </si>
+  <si>
+    <t>5.2 s</t>
+  </si>
+  <si>
+    <t>AR CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D9%91%D9%8E%D8%A9/%D8%AD%D8%A8%D9%91-%D8%A7%D9%84%D8%B4%D9%91%D9%8E%D8%A8%D8%A7%D8%A8-%D9%88%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%B0%D9%8E%D8%A7%D8%AA-%D8%A7%D9%84%D8%B5%D9%91%D9%90%D9%84%D8%A9/%D8%AD%D8%A8-%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8-%D8%A7%D9%84%D8%B9%D8%AF%D9%91</t>
+  </si>
+  <si>
+    <t>3.7 s</t>
+  </si>
+  <si>
+    <t>8.3 s</t>
+  </si>
+  <si>
+    <t>390 ms</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>EN PV Ankle Fractures Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
+  </si>
+  <si>
+    <t>180 ms</t>
+  </si>
+  <si>
+    <t>4.8 s</t>
+  </si>
+  <si>
+    <t>EN PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures</t>
+  </si>
+  <si>
+    <t>2.3 s</t>
+  </si>
+  <si>
+    <t>160 ms</t>
+  </si>
+  <si>
+    <t>DE PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/profi/verletzungen-vergiftungen/frakturen/sprunggelenkfrakturen</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>ES PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/professional/lesiones-y-envenenamientos/fracturas/fracturas-del-tobillo</t>
+  </si>
+  <si>
+    <t>FR PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/professional/blessures-empoisonnement/fractures/fractures-de-cheville</t>
+  </si>
+  <si>
+    <t>IT PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/professionale/traumi-avvelenamento/fratture/fratture-alla-caviglia</t>
+  </si>
+  <si>
+    <t>JA PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/professional/22-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%96%A2%E7%AF%80%E9%AA%A8%E6%8A%98</t>
+  </si>
+  <si>
+    <t>1.8 s</t>
+  </si>
+  <si>
+    <t>PT PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/profissional/les%C3%B5es-intoxica%C3%A7%C3%A3o/fraturas/fraturas-do-tornozelo</t>
+  </si>
+  <si>
+    <t>RU PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/professional/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%B3%D0%BE%D0%BB%D0%B5%D0%BD%D0%BE%D1%81%D1%82%D0%BE%D0%BF%D0%BD%D0%BE%D0%B3%D0%BE-%D1%81%D1%83%D1%81%D1%82%D0%B0%D0%B2%D0%B0</t>
+  </si>
+  <si>
+    <t>CN PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/professional/injuries-poisoning/fractures/ankle-fractures</t>
+  </si>
+  <si>
+    <t>10.4 s</t>
+  </si>
+  <si>
+    <t>220 ms</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>VI PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/vi/professional/ch%E1%BA%A5n-th%C6%B0%C6%A1ng-ng%E1%BB%99-%C4%91%E1%BB%99c/g%C3%A3y-x%C6%B0%C6%A1ng/g%C3%A3y-x%C6%B0%C6%A1ng-c%E1%BB%95-ch%C3%A2n</t>
+  </si>
+  <si>
+    <t>EN CV Ankle Fractures Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
+  </si>
+  <si>
+    <t>7.2 s</t>
+  </si>
+  <si>
+    <t>EN CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
+  </si>
+  <si>
+    <t>DE CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/heim/verletzungen-und-vergiftung/frakturen/kn%C3%B6chelfrakturen</t>
+  </si>
+  <si>
+    <t>7.7 s</t>
+  </si>
+  <si>
+    <t>ES CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/hogar/traumatismos-y-envenenamientos/fracturas/fracturas-de-tobillo</t>
+  </si>
+  <si>
+    <t>FR CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/accueil/l%C3%A9sions-et-intoxications/fractures/fractures-de-la-cheville</t>
   </si>
   <si>
     <t>3.0 s</t>
   </si>
   <si>
-    <t>EN PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/professional</t>
+    <t>IT CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/casa/lesioni-e-avvelenamento/fratture/fratture-della-caviglia</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>JA CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/home/25-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%A6%96%E3%81%AE%E9%AA%A8%E6%8A%98</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>KO CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ko/home/%EB%B6%80%EC%83%81-%EB%B0%8F-%EC%A4%91%EB%8F%85/%EA%B3%A8%EC%A0%88/%EB%B0%9C%EB%AA%A9-%EA%B3%A8%EC%A0%88</t>
   </si>
   <si>
     <t>1.9 s</t>
   </si>
   <si>
-    <t>6.8 s</t>
-  </si>
-  <si>
-    <t>100 ms</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>DE PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/profi</t>
-  </si>
-  <si>
-    <t>6.7 s</t>
-  </si>
-  <si>
-    <t>80 ms</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3.2 s</t>
-  </si>
-  <si>
-    <t>ES PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/professional</t>
-  </si>
-  <si>
-    <t>1.8 s</t>
-  </si>
-  <si>
-    <t>8.0 s</t>
-  </si>
-  <si>
-    <t>120 ms</t>
-  </si>
-  <si>
-    <t>3.4 s</t>
-  </si>
-  <si>
-    <t>FR PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/professional</t>
-  </si>
-  <si>
-    <t>7.2 s</t>
-  </si>
-  <si>
-    <t>IT PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/professionale</t>
-  </si>
-  <si>
-    <t>2.9 s</t>
-  </si>
-  <si>
-    <t>8.1 s</t>
-  </si>
-  <si>
-    <t>70 ms</t>
-  </si>
-  <si>
-    <t>3.6 s</t>
-  </si>
-  <si>
-    <t>JA PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/professional</t>
-  </si>
-  <si>
-    <t>1.6 s</t>
-  </si>
-  <si>
-    <t>6.4 s</t>
-  </si>
-  <si>
-    <t>240 ms</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>2.0 s</t>
-  </si>
-  <si>
-    <t>PT PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/profissional</t>
-  </si>
-  <si>
-    <t>4.1 s</t>
-  </si>
-  <si>
-    <t>RU PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/professional</t>
-  </si>
-  <si>
-    <t>2.5 s</t>
-  </si>
-  <si>
-    <t>6.9 s</t>
-  </si>
-  <si>
-    <t>CN PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/professional</t>
-  </si>
-  <si>
-    <t>9.4 s</t>
-  </si>
-  <si>
-    <t>150 ms</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>5.9 s</t>
-  </si>
-  <si>
-    <t>VI PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/vi/professional</t>
-  </si>
-  <si>
-    <t>1.4 s</t>
-  </si>
-  <si>
-    <t>6.3 s</t>
-  </si>
-  <si>
-    <t>2.2 s</t>
-  </si>
-  <si>
-    <t>EN CV Home Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/home</t>
-  </si>
-  <si>
-    <t>2.7 s</t>
-  </si>
-  <si>
-    <t>7.6 s</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>EN CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/home</t>
-  </si>
-  <si>
-    <t>6.6 s</t>
-  </si>
-  <si>
-    <t>110 ms</t>
-  </si>
-  <si>
-    <t>DE CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/heim</t>
-  </si>
-  <si>
-    <t>ES CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/hogar</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>FR CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/accueil</t>
-  </si>
-  <si>
-    <t>3.1 s</t>
-  </si>
-  <si>
-    <t>IT CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/casa</t>
-  </si>
-  <si>
-    <t>7.0 s</t>
-  </si>
-  <si>
-    <t>JA CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/home</t>
-  </si>
-  <si>
-    <t>7.4 s</t>
-  </si>
-  <si>
-    <t>2.1 s</t>
-  </si>
-  <si>
-    <t>KO CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ko/home</t>
-  </si>
-  <si>
-    <t>6.1 s</t>
-  </si>
-  <si>
-    <t>PT CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/casa</t>
-  </si>
-  <si>
-    <t>RU CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/home</t>
-  </si>
-  <si>
-    <t>CN CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/home</t>
-  </si>
-  <si>
-    <t>3.3 s</t>
-  </si>
-  <si>
-    <t>5.6 s</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>4.8 s</t>
-  </si>
-  <si>
-    <t>AR CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ar/home</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>2.3 s</t>
-  </si>
-  <si>
-    <t>EN PV Acne Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris?query=acne</t>
-  </si>
-  <si>
-    <t>6.5 s</t>
-  </si>
-  <si>
-    <t>290 ms</t>
-  </si>
-  <si>
-    <t>3.5 s</t>
-  </si>
-  <si>
-    <t>EN PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/en-jp/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>6.2 s</t>
-  </si>
-  <si>
-    <t>230 ms</t>
-  </si>
-  <si>
-    <t>DE PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/profi/erkrankungen-der-haut/akne-und-verwandte-erkrankungen/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>190 ms</t>
-  </si>
-  <si>
-    <t>4.0 s</t>
-  </si>
-  <si>
-    <t>ES PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/professional/trastornos-dermatol%C3%B3gicos/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9-vulgar</t>
-  </si>
-  <si>
-    <t>7.1 s</t>
-  </si>
-  <si>
-    <t>210 ms</t>
-  </si>
-  <si>
-    <t>FR PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/professional/troubles-dermatologiques/acn%C3%A9-et-pathologies-apparent%C3%A9es/acn%C3%A9-vulgaire</t>
-  </si>
-  <si>
-    <t>160 ms</t>
-  </si>
-  <si>
-    <t>4.2 s</t>
-  </si>
-  <si>
-    <t>IT PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/professionale/disturbi-dermatologici/acne-e-disturbi-correlati/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>JA PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/professional/14-%E7%9A%AE%E8%86%9A%E7%96%BE%E6%82%A3/%E3%81%96%E7%98%A1%E3%81%8A%E3%82%88%E3%81%B3%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E5%B0%8B%E5%B8%B8%E6%80%A7%E3%81%96%E7%98%A1</t>
-  </si>
-  <si>
-    <t>PT PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/profissional/dist%C3%BArbios-dermatol%C3%B3gicos/acne-e-doen%C3%A7as-relacionadas/acne-vulgar</t>
-  </si>
-  <si>
-    <t>RU PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/professional/%D0%B4%D0%B5%D1%80%D0%BC%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F-%D0%BF%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%8F/%D0%B0%D0%BA%D0%BD%D0%B5-%D0%B8-%D1%81%D0%B2%D1%8F%D0%B7%D0%B0%D0%BD%D0%BD%D1%8B%D0%B5-%D1%81-%D0%BD%D0%B8%D0%BC%D0%B8-%D1%80%D0%B0%D1%81%D1%81%D1%82%D1%80%D0%BE%D0%B9%D1%81%D1%82%D0%B2%D0%B0/%D0%B2%D1%83%D0%BB%D1%8C%D0%B3%D0%B0%D1%80%D0%BD%D1%8B%D0%B5-%D1%83%D0%B3%D1%80%D0%B8</t>
-  </si>
-  <si>
-    <t>2.4 s</t>
-  </si>
-  <si>
-    <t>170 ms</t>
-  </si>
-  <si>
-    <t>3.9 s</t>
-  </si>
-  <si>
-    <t>CN PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>3.8 s</t>
-  </si>
-  <si>
-    <t>9.6 s</t>
-  </si>
-  <si>
-    <t>330 ms</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>VI PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/vi/professional/r%E1%BB%91i-lo%E1%BA%A1n-da-li%E1%BB%85u/tr%E1%BB%A9ng-c%C3%A1-v%C3%A0-c%C3%A1c-b%E1%BB%87nh-l%C3%BD-li%C3%AAn-quan/tr%E1%BB%A9ng-c%C3%A1</t>
-  </si>
-  <si>
-    <t>180 ms</t>
-  </si>
-  <si>
-    <t>EN CV Acne Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/home/skin-disorders/acne-and-related-disorders/acne?query=acne</t>
-  </si>
-  <si>
-    <t>12.7 s</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>4.9 s</t>
-  </si>
-  <si>
-    <t>EN CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/home/skin-disorders/acne-and-related-disorders/acne</t>
-  </si>
-  <si>
-    <t>3.7 s</t>
-  </si>
-  <si>
-    <t>12.6 s</t>
-  </si>
-  <si>
-    <t>5.1 s</t>
-  </si>
-  <si>
-    <t>DE CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/heim/hauterkrankungen/akne-und-verwandte-erkrankungen/akne</t>
-  </si>
-  <si>
-    <t>9.3 s</t>
-  </si>
-  <si>
-    <t>4.4 s</t>
-  </si>
-  <si>
-    <t>ES CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/hogar/trastornos-de-la-piel/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9</t>
-  </si>
-  <si>
-    <t>FR CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/accueil/troubles-cutane%C3%A9s/acn%C3%A9-et-troubles-associ%C3%A9s/acn%C3%A9</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>IT CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/casa/patologie-della-cute/acne-e-disturbi-correlati/acne</t>
-  </si>
-  <si>
-    <t>11.4 s</t>
-  </si>
-  <si>
-    <t>JA CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/home/17-%E7%9A%AE%E8%86%9A%E3%81%AE%E7%97%85%E6%B0%97/%E3%81%AB%E3%81%8D%E3%81%B3%E3%81%A8%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E3%81%AB%E3%81%8D%E3%81%B3%EF%BC%88%E3%81%96%E7%98%A1%EF%BC%89</t>
-  </si>
-  <si>
-    <t>2.6 s</t>
-  </si>
-  <si>
-    <t>KO CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ko/home/%ED%94%BC%EB%B6%80-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84-%EB%B0%8F-%EA%B4%80%EB%A0%A8-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84</t>
-  </si>
-  <si>
-    <t>7.5 s</t>
-  </si>
-  <si>
-    <t>200 ms</t>
-  </si>
-  <si>
-    <t>PT CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/casa/dist%C3%BArbios-da-pele/acne-e-dist%C3%BArbios-relacionados/acne</t>
-  </si>
-  <si>
-    <t>12.0 s</t>
-  </si>
-  <si>
-    <t>4.7 s</t>
-  </si>
-  <si>
-    <t>RU CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/home/%D0%BA%D0%BE%D0%B6%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C-%D0%B8-%D1%80%D0%BE%D0%B4%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C</t>
-  </si>
-  <si>
-    <t>CN CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/home/skin-disorders/acne-and-related-disorders/acne</t>
-  </si>
-  <si>
-    <t>260 ms</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>5.4 s</t>
-  </si>
-  <si>
-    <t>AR CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D9%91%D9%8E%D8%A9/%D8%AD%D8%A8%D9%91-%D8%A7%D9%84%D8%B4%D9%91%D9%8E%D8%A8%D8%A7%D8%A8-%D9%88%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%B0%D9%8E%D8%A7%D8%AA-%D8%A7%D9%84%D8%B5%D9%91%D9%90%D9%84%D8%A9/%D8%AD%D8%A8-%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8-%D8%A7%D9%84%D8%B9%D8%AF%D9%91</t>
-  </si>
-  <si>
-    <t>9.9 s</t>
-  </si>
-  <si>
-    <t>340 ms</t>
-  </si>
-  <si>
-    <t>EN PV Ankle Fractures Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
-  </si>
-  <si>
-    <t>130 ms</t>
-  </si>
-  <si>
-    <t>EN PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures</t>
-  </si>
-  <si>
-    <t>DE PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/profi/verletzungen-vergiftungen/frakturen/sprunggelenkfrakturen</t>
-  </si>
-  <si>
-    <t>ES PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/professional/lesiones-y-envenenamientos/fracturas/fracturas-del-tobillo</t>
-  </si>
-  <si>
-    <t>FR PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/professional/blessures-empoisonnement/fractures/fractures-de-cheville</t>
-  </si>
-  <si>
-    <t>IT PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/professionale/traumi-avvelenamento/fratture/fratture-alla-caviglia</t>
-  </si>
-  <si>
-    <t>JA PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/professional/22-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%96%A2%E7%AF%80%E9%AA%A8%E6%8A%98</t>
-  </si>
-  <si>
-    <t>5.7 s</t>
-  </si>
-  <si>
-    <t>PT PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/profissional/les%C3%B5es-intoxica%C3%A7%C3%A3o/fraturas/fraturas-do-tornozelo</t>
-  </si>
-  <si>
-    <t>RU PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/professional/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%B3%D0%BE%D0%BB%D0%B5%D0%BD%D0%BE%D1%81%D1%82%D0%BE%D0%BF%D0%BD%D0%BE%D0%B3%D0%BE-%D1%81%D1%83%D1%81%D1%82%D0%B0%D0%B2%D0%B0</t>
-  </si>
-  <si>
-    <t>CN PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/professional/injuries-poisoning/fractures/ankle-fractures</t>
-  </si>
-  <si>
-    <t>9.5 s</t>
-  </si>
-  <si>
-    <t>VI PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/vi/professional/ch%E1%BA%A5n-th%C6%B0%C6%A1ng-ng%E1%BB%99-%C4%91%E1%BB%99c/g%C3%A3y-x%C6%B0%C6%A1ng/g%C3%A3y-x%C6%B0%C6%A1ng-c%E1%BB%95-ch%C3%A2n</t>
-  </si>
-  <si>
-    <t>EN CV Ankle Fractures Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
-  </si>
-  <si>
-    <t>EN CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
-  </si>
-  <si>
-    <t>DE CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/heim/verletzungen-und-vergiftung/frakturen/kn%C3%B6chelfrakturen</t>
-  </si>
-  <si>
-    <t>ES CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/hogar/traumatismos-y-envenenamientos/fracturas/fracturas-de-tobillo</t>
-  </si>
-  <si>
-    <t>FR CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/accueil/l%C3%A9sions-et-intoxications/fractures/fractures-de-la-cheville</t>
-  </si>
-  <si>
-    <t>140 ms</t>
-  </si>
-  <si>
-    <t>IT CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/casa/lesioni-e-avvelenamento/fratture/fratture-della-caviglia</t>
-  </si>
-  <si>
-    <t>JA CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/home/25-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%A6%96%E3%81%AE%E9%AA%A8%E6%8A%98</t>
-  </si>
-  <si>
-    <t>6.0 s</t>
-  </si>
-  <si>
-    <t>KO CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ko/home/%EB%B6%80%EC%83%81-%EB%B0%8F-%EC%A4%91%EB%8F%85/%EA%B3%A8%EC%A0%88/%EB%B0%9C%EB%AA%A9-%EA%B3%A8%EC%A0%88</t>
-  </si>
-  <si>
     <t>PT CV Ankle Fractures</t>
   </si>
   <si>
@@ -749,6 +800,9 @@
     <t>https://www.msdmanuals.com/ru/home/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%B8-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%BB%D0%BE%D0%B4%D1%8B%D0%B6%D0%BA%D0%B8</t>
   </si>
   <si>
+    <t>9.8 s</t>
+  </si>
+  <si>
     <t>CN CV Ankle Fractures</t>
   </si>
   <si>
@@ -759,9 +813,6 @@
   </si>
   <si>
     <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A5%D8%B5%D8%A7%D8%A8%D8%A7%D8%AA-%D9%88%D8%A7%D9%84%D8%AA%D9%91%D9%8E%D8%B3%D9%85%D9%91%D9%8F%D9%85/%D8%A7%D9%84%D9%83%D8%B3%D9%88%D8%B1/%D9%83%D9%8F%D8%B3%D9%88%D8%B1%D9%8F-%D8%A7%D9%84%D9%83%D8%A7%D8%AD%D9%84</t>
-  </si>
-  <si>
-    <t>0.073</t>
   </si>
 </sst>
 </file>
@@ -861,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -899,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -923,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -931,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -949,19 +1000,19 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -969,13 +1020,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -987,19 +1038,19 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
       <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +1058,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -1028,16 +1079,16 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1102,7 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -1063,19 +1114,19 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1083,13 +1134,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -1101,19 +1152,19 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1121,13 +1172,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -1142,16 +1193,16 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1159,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -1177,19 +1228,19 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
         <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1215,7 +1266,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -1224,10 +1275,10 @@
         <v>64</v>
       </c>
       <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
         <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1235,13 +1286,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
       <c r="D12" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
@@ -1253,19 +1304,19 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
-        <v>70</v>
-      </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1273,13 +1324,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
@@ -1291,19 +1342,19 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
         <v>74</v>
       </c>
-      <c r="I13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1311,37 +1362,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1349,10 +1400,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
         <v>0.7</v>
@@ -1361,25 +1412,25 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -1387,37 +1438,37 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
       <c r="D16" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1425,37 +1476,37 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1463,37 +1514,37 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -1501,37 +1552,37 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
         <v>49</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
       </c>
       <c r="K19" t="s">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -1539,37 +1590,37 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="E20" t="n">
-        <v>0.96</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1577,37 +1628,37 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D21" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1615,37 +1666,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D22" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.96</v>
+        <v>1.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1653,37 +1704,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D23" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="G23" t="n">
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -1691,13 +1742,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D24" t="n">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
@@ -1709,19 +1760,19 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -1729,13 +1780,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -1744,22 +1795,22 @@
         <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -1767,37 +1818,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="E26" t="n">
         <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.79</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1805,13 +1856,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -1820,22 +1871,22 @@
         <v>1.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
@@ -1843,13 +1894,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D28" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -1858,22 +1909,22 @@
         <v>1.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
         <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -1881,37 +1932,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" t="s">
-        <v>132</v>
-      </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1919,13 +1970,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
         <v>0.95</v>
@@ -1934,22 +1985,22 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -1957,13 +2008,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D31" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E31" t="n">
         <v>0.96</v>
@@ -1975,19 +2026,19 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -1995,13 +2046,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -2013,19 +2064,19 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -2033,13 +2084,13 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -2048,22 +2099,22 @@
         <v>1.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -2071,13 +2122,13 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D34" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="E34" t="n">
         <v>0.88</v>
@@ -2086,22 +2137,22 @@
         <v>0.61</v>
       </c>
       <c r="G34" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K34" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -2109,13 +2160,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D35" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="E35" t="n">
         <v>0.96</v>
@@ -2124,22 +2175,22 @@
         <v>0.79</v>
       </c>
       <c r="G35" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K35" t="s">
         <v>25</v>
       </c>
       <c r="L35" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -2147,13 +2198,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D36" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -2165,19 +2216,19 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37">
@@ -2185,13 +2236,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D37" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -2203,19 +2254,19 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J37" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s">
         <v>25</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
@@ -2223,16 +2274,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="E38" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -2241,19 +2292,19 @@
         <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
@@ -2261,16 +2312,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -2279,19 +2330,19 @@
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="K39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -2299,37 +2350,37 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>0.92</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J40" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K40" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -2337,16 +2388,16 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D41" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="E41" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -2355,19 +2406,19 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -2375,13 +2426,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D42" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="E42" t="n">
         <v>0.93</v>
@@ -2393,19 +2444,19 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -2413,16 +2464,16 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D43" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="E43" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F43" t="n">
         <v>0.79</v>
@@ -2431,19 +2482,19 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L43" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44">
@@ -2451,16 +2502,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D44" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="E44" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -2469,19 +2520,19 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J44" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="K44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45">
@@ -2489,16 +2540,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D45" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="E45" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -2507,19 +2558,19 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>194</v>
+      </c>
+      <c r="J45" t="s">
+        <v>195</v>
+      </c>
+      <c r="K45" t="s">
         <v>31</v>
       </c>
-      <c r="I45" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" t="s">
-        <v>30</v>
-      </c>
       <c r="L45" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -2527,16 +2578,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D46" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="E46" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F46" t="n">
         <v>0.61</v>
@@ -2545,19 +2596,19 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K46" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47">
@@ -2565,37 +2616,37 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D47" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F47" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="G47" t="n">
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="I47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="L47" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
@@ -2603,13 +2654,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D48" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -2621,19 +2672,19 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K48" t="s">
         <v>25</v>
       </c>
       <c r="L48" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49">
@@ -2641,13 +2692,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -2659,19 +2710,19 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s">
         <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -2679,13 +2730,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D50" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E50" t="n">
         <v>0.97</v>
@@ -2697,19 +2748,19 @@
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51">
@@ -2717,13 +2768,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D51" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="E51" t="n">
         <v>0.97</v>
@@ -2735,19 +2786,19 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="K51" t="s">
         <v>25</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
@@ -2755,13 +2806,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D52" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -2773,19 +2824,19 @@
         <v>1.0</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -2793,16 +2844,16 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -2811,19 +2862,19 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
@@ -2831,16 +2882,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D54" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="E54" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F54" t="n">
         <v>0.79</v>
@@ -2849,19 +2900,19 @@
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I54" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K54" t="s">
         <v>25</v>
       </c>
       <c r="L54" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -2869,13 +2920,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D55" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E55" t="n">
         <v>0.97</v>
@@ -2887,19 +2938,19 @@
         <v>1.0</v>
       </c>
       <c r="H55" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="I55" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J55" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L55" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
@@ -2907,13 +2958,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D56" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="E56" t="n">
         <v>0.97</v>
@@ -2925,19 +2976,19 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57">
@@ -2945,37 +2996,37 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D57" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E57" t="n">
         <v>0.88</v>
       </c>
       <c r="F57" t="n">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="G57" t="n">
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="K57" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="L57" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58">
@@ -2983,13 +3034,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D58" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="E58" t="n">
         <v>0.93</v>
@@ -3001,19 +3052,19 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="K58" t="s">
         <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -3021,13 +3072,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D59" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -3036,22 +3087,22 @@
         <v>1.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I59" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="J59" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K59" t="s">
         <v>25</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60">
@@ -3059,10 +3110,10 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D60" t="n">
         <v>0.73</v>
@@ -3074,22 +3125,22 @@
         <v>1.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="J60" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s">
         <v>25</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
@@ -3097,37 +3148,37 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D61" t="n">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="E61" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H61" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L61" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
@@ -3135,37 +3186,37 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D62" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0</v>
+        <v>0.95</v>
       </c>
       <c r="F62" t="n">
         <v>1.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L62" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
@@ -3173,37 +3224,37 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D63" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E63" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F63" t="n">
         <v>1.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="J63" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -3211,37 +3262,37 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D64" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="E64" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F64" t="n">
         <v>1.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="L64" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -3249,37 +3300,37 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D65" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E65" t="n">
         <v>0.96</v>
       </c>
       <c r="F65" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="G65" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I65" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="J65" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="K65" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
@@ -3287,37 +3338,37 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D66" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="E66" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F66" t="n">
         <v>0.79</v>
       </c>
       <c r="G66" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
@@ -3325,37 +3376,37 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D67" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="E67" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F67" t="n">
         <v>1.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H67" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L67" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -3363,37 +3414,37 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D68" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="E68" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F68" t="n">
         <v>1.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="I68" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="J68" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="K68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
@@ -3401,13 +3452,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E69" t="n">
         <v>0.96</v>
@@ -3416,22 +3467,22 @@
         <v>0.61</v>
       </c>
       <c r="G69" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="I69" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="J69" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="K69" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="L69" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70">
@@ -3439,37 +3490,37 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D70" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="E70" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F70" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="G70" t="n">
-        <v>0.92</v>
+        <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K70" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="L70" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/LighthouseResults.xlsx
+++ b/LighthouseResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="273">
   <si>
     <t>Date</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Speed Index</t>
   </si>
   <si>
-    <t>2024-10-25</t>
+    <t>2024-11-08</t>
   </si>
   <si>
     <t>EN PV Home Merck</t>
@@ -59,760 +59,778 @@
     <t>https://www.merckmanuals.com/professional</t>
   </si>
   <si>
+    <t>1.9 s</t>
+  </si>
+  <si>
+    <t>9.0 s</t>
+  </si>
+  <si>
+    <t>140 ms</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>3.4 s</t>
+  </si>
+  <si>
+    <t>EN PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/professional</t>
+  </si>
+  <si>
+    <t>2.7 s</t>
+  </si>
+  <si>
+    <t>8.4 s</t>
+  </si>
+  <si>
+    <t>130 ms</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>8.0 s</t>
+  </si>
+  <si>
+    <t>DE PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/profi</t>
+  </si>
+  <si>
+    <t>3.5 s</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.2 s</t>
+  </si>
+  <si>
+    <t>ES PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/professional</t>
+  </si>
+  <si>
+    <t>8.5 s</t>
+  </si>
+  <si>
+    <t>4.5 s</t>
+  </si>
+  <si>
+    <t>FR PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/professional</t>
+  </si>
+  <si>
+    <t>2.1 s</t>
+  </si>
+  <si>
+    <t>6.9 s</t>
+  </si>
+  <si>
+    <t>110 ms</t>
+  </si>
+  <si>
+    <t>3.7 s</t>
+  </si>
+  <si>
+    <t>IT PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/professionale</t>
+  </si>
+  <si>
+    <t>8.3 s</t>
+  </si>
+  <si>
+    <t>70 ms</t>
+  </si>
+  <si>
+    <t>JA PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/professional</t>
+  </si>
+  <si>
+    <t>1.7 s</t>
+  </si>
+  <si>
+    <t>7.4 s</t>
+  </si>
+  <si>
+    <t>300 ms</t>
+  </si>
+  <si>
+    <t>PT PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/profissional</t>
+  </si>
+  <si>
+    <t>7.0 s</t>
+  </si>
+  <si>
+    <t>100 ms</t>
+  </si>
+  <si>
+    <t>5.4 s</t>
+  </si>
+  <si>
+    <t>RU PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/professional</t>
+  </si>
+  <si>
+    <t>2.2 s</t>
+  </si>
+  <si>
+    <t>6.3 s</t>
+  </si>
+  <si>
+    <t>4.7 s</t>
+  </si>
+  <si>
+    <t>CN PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/professional</t>
+  </si>
+  <si>
+    <t>10.1 s</t>
+  </si>
+  <si>
+    <t>160 ms</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>6.6 s</t>
+  </si>
+  <si>
+    <t>VI PV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/vi/professional</t>
+  </si>
+  <si>
+    <t>6.7 s</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>3.0 s</t>
+  </si>
+  <si>
+    <t>EN CV Home Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/home</t>
+  </si>
+  <si>
+    <t>7.9 s</t>
+  </si>
+  <si>
+    <t>EN CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/home</t>
+  </si>
+  <si>
+    <t>120 ms</t>
+  </si>
+  <si>
+    <t>DE CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/heim</t>
+  </si>
+  <si>
+    <t>8.9 s</t>
+  </si>
+  <si>
+    <t>ES CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/hogar</t>
+  </si>
+  <si>
+    <t>8.2 s</t>
+  </si>
+  <si>
+    <t>3.8 s</t>
+  </si>
+  <si>
+    <t>FR CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/accueil</t>
+  </si>
+  <si>
+    <t>9.2 s</t>
+  </si>
+  <si>
+    <t>4.8 s</t>
+  </si>
+  <si>
+    <t>IT CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/casa</t>
+  </si>
+  <si>
+    <t>2.9 s</t>
+  </si>
+  <si>
+    <t>JA CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/home</t>
+  </si>
+  <si>
+    <t>240 ms</t>
+  </si>
+  <si>
+    <t>KO CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ko/home</t>
+  </si>
+  <si>
+    <t>1.6 s</t>
+  </si>
+  <si>
+    <t>170 ms</t>
+  </si>
+  <si>
+    <t>PT CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/casa</t>
+  </si>
+  <si>
+    <t>4.6 s</t>
+  </si>
+  <si>
+    <t>RU CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/home</t>
+  </si>
+  <si>
+    <t>3.1 s</t>
+  </si>
+  <si>
+    <t>CN CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/home</t>
+  </si>
+  <si>
+    <t>5.8 s</t>
+  </si>
+  <si>
+    <t>AR CV Home</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ar/home</t>
+  </si>
+  <si>
+    <t>6.8 s</t>
+  </si>
+  <si>
+    <t>3.9 s</t>
+  </si>
+  <si>
+    <t>EN PV Acne Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris?query=acne</t>
+  </si>
+  <si>
+    <t>3.2 s</t>
+  </si>
+  <si>
+    <t>550 ms</t>
+  </si>
+  <si>
+    <t>5.1 s</t>
+  </si>
+  <si>
+    <t>EN PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/en-jp/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>2.6 s</t>
+  </si>
+  <si>
+    <t>350 ms</t>
+  </si>
+  <si>
+    <t>5.7 s</t>
+  </si>
+  <si>
+    <t>DE PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/profi/erkrankungen-der-haut/akne-und-verwandte-erkrankungen/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>220 ms</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>5.5 s</t>
+  </si>
+  <si>
+    <t>ES PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/professional/trastornos-dermatol%C3%B3gicos/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9-vulgar</t>
+  </si>
+  <si>
     <t>2.5 s</t>
   </si>
   <si>
-    <t>8.1 s</t>
-  </si>
-  <si>
-    <t>120 ms</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>3.5 s</t>
-  </si>
-  <si>
-    <t>EN PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/professional</t>
-  </si>
-  <si>
-    <t>2.1 s</t>
+    <t>190 ms</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>FR PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/professional/troubles-dermatologiques/acn%C3%A9-et-pathologies-apparent%C3%A9es/acn%C3%A9-vulgaire</t>
+  </si>
+  <si>
+    <t>4.0 s</t>
   </si>
   <si>
     <t>7.3 s</t>
   </si>
   <si>
-    <t>110 ms</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>3.9 s</t>
-  </si>
-  <si>
-    <t>DE PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/profi</t>
-  </si>
-  <si>
-    <t>3.1 s</t>
-  </si>
-  <si>
-    <t>8.0 s</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4.5 s</t>
-  </si>
-  <si>
-    <t>ES PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/professional</t>
+    <t>270 ms</t>
+  </si>
+  <si>
+    <t>IT PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/professionale/disturbi-dermatologici/acne-e-disturbi-correlati/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>JA PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/professional/14-%E7%9A%AE%E8%86%9A%E7%96%BE%E6%82%A3/%E3%81%96%E7%98%A1%E3%81%8A%E3%82%88%E3%81%B3%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E5%B0%8B%E5%B8%B8%E6%80%A7%E3%81%96%E7%98%A1</t>
+  </si>
+  <si>
+    <t>2.3 s</t>
+  </si>
+  <si>
+    <t>7.2 s</t>
+  </si>
+  <si>
+    <t>230 ms</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>4.4 s</t>
+  </si>
+  <si>
+    <t>PT PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/profissional/dist%C3%BArbios-dermatol%C3%B3gicos/acne-e-doen%C3%A7as-relacionadas/acne-vulgar</t>
+  </si>
+  <si>
+    <t>4.3 s</t>
+  </si>
+  <si>
+    <t>410 ms</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>RU PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/professional/%D0%B4%D0%B5%D1%80%D0%BC%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F-%D0%BF%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%8F/%D0%B0%D0%BA%D0%BD%D0%B5-%D0%B8-%D1%81%D0%B2%D1%8F%D0%B7%D0%B0%D0%BD%D0%BD%D1%8B%D0%B5-%D1%81-%D0%BD%D0%B8%D0%BC%D0%B8-%D1%80%D0%B0%D1%81%D1%81%D1%82%D1%80%D0%BE%D0%B9%D1%81%D1%82%D0%B2%D0%B0/%D0%B2%D1%83%D0%BB%D1%8C%D0%B3%D0%B0%D1%80%D0%BD%D1%8B%D0%B5-%D1%83%D0%B3%D1%80%D0%B8</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>6.1 s</t>
+  </si>
+  <si>
+    <t>CN PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
+  </si>
+  <si>
+    <t>11.4 s</t>
+  </si>
+  <si>
+    <t>360 ms</t>
   </si>
   <si>
     <t>7.5 s</t>
   </si>
   <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>FR PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/professional</t>
-  </si>
-  <si>
-    <t>7.8 s</t>
-  </si>
-  <si>
-    <t>3.4 s</t>
-  </si>
-  <si>
-    <t>IT PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/professionale</t>
-  </si>
-  <si>
-    <t>9.3 s</t>
+    <t>VI PV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/vi/professional/r%E1%BB%91i-lo%E1%BA%A1n-da-li%E1%BB%85u/tr%E1%BB%A9ng-c%C3%A1-v%C3%A0-c%C3%A1c-b%E1%BB%87nh-l%C3%BD-li%C3%AAn-quan/tr%E1%BB%A9ng-c%C3%A1</t>
+  </si>
+  <si>
+    <t>6.4 s</t>
+  </si>
+  <si>
+    <t>EN CV Acne Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/home/skin-disorders/acne-and-related-disorders/acne?query=acne</t>
+  </si>
+  <si>
+    <t>12.7 s</t>
+  </si>
+  <si>
+    <t>340 ms</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>EN CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/home/skin-disorders/acne-and-related-disorders/acne</t>
+  </si>
+  <si>
+    <t>4.1 s</t>
+  </si>
+  <si>
+    <t>12.3 s</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>DE CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/heim/hauterkrankungen/akne-und-verwandte-erkrankungen/akne</t>
+  </si>
+  <si>
+    <t>10.4 s</t>
+  </si>
+  <si>
+    <t>330 ms</t>
+  </si>
+  <si>
+    <t>ES CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/hogar/trastornos-de-la-piel/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9</t>
+  </si>
+  <si>
+    <t>11.3 s</t>
+  </si>
+  <si>
+    <t>FR CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/accueil/troubles-cutan%C3%A9s/acn%C3%A9-et-troubles-associ%C3%A9s/acn%C3%A9</t>
+  </si>
+  <si>
+    <t>10.2 s</t>
+  </si>
+  <si>
+    <t>210 ms</t>
+  </si>
+  <si>
+    <t>IT CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/casa/patologie-della-cute/acne-e-disturbi-correlati/acne</t>
+  </si>
+  <si>
+    <t>12.1 s</t>
+  </si>
+  <si>
+    <t>JA CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/home/17-%E7%9A%AE%E8%86%9A%E3%81%AE%E7%97%85%E6%B0%97/%E3%81%AB%E3%81%8D%E3%81%B3%E3%81%A8%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E3%81%AB%E3%81%8D%E3%81%B3%EF%BC%88%E3%81%96%E7%98%A1%EF%BC%89</t>
+  </si>
+  <si>
+    <t>2.0 s</t>
+  </si>
+  <si>
+    <t>KO CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ko/home/%ED%94%BC%EB%B6%80-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84-%EB%B0%8F-%EA%B4%80%EB%A0%A8-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84</t>
+  </si>
+  <si>
+    <t>3.6 s</t>
+  </si>
+  <si>
+    <t>10.3 s</t>
+  </si>
+  <si>
+    <t>320 ms</t>
+  </si>
+  <si>
+    <t>PT CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/casa/dist%C3%BArbios-da-pele/acne-e-dist%C3%BArbios-relacionados/acne</t>
+  </si>
+  <si>
+    <t>12.0 s</t>
+  </si>
+  <si>
+    <t>6.2 s</t>
+  </si>
+  <si>
+    <t>RU CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/home/%D0%BA%D0%BE%D0%B6%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C-%D0%B8-%D1%80%D0%BE%D0%B4%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C</t>
+  </si>
+  <si>
+    <t>5.6 s</t>
+  </si>
+  <si>
+    <t>250 ms</t>
+  </si>
+  <si>
+    <t>CN CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/home/skin-disorders/acne-and-related-disorders/acne</t>
+  </si>
+  <si>
+    <t>5.9 s</t>
+  </si>
+  <si>
+    <t>AR CV Acne</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D9%91%D9%8E%D8%A9/%D8%AD%D8%A8%D9%91-%D8%A7%D9%84%D8%B4%D9%91%D9%8E%D8%A8%D8%A7%D8%A8-%D9%88%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%B0%D9%8E%D8%A7%D8%AA-%D8%A7%D9%84%D8%B5%D9%91%D9%90%D9%84%D8%A9/%D8%AD%D8%A8-%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8-%D8%A7%D9%84%D8%B9%D8%AF%D9%91</t>
   </si>
   <si>
     <t>5.0 s</t>
   </si>
   <si>
-    <t>JA PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/professional</t>
-  </si>
-  <si>
-    <t>1.7 s</t>
-  </si>
-  <si>
-    <t>7.4 s</t>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>EN PV Ankle Fractures Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>5.3 s</t>
+  </si>
+  <si>
+    <t>EN PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures</t>
+  </si>
+  <si>
+    <t>2.4 s</t>
+  </si>
+  <si>
+    <t>DE PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/profi/verletzungen-vergiftungen/frakturen/sprunggelenkfrakturen</t>
+  </si>
+  <si>
+    <t>ES PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/professional/lesiones-y-envenenamientos/fracturas/fracturas-del-tobillo</t>
   </si>
   <si>
     <t>150 ms</t>
   </si>
   <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>4.0 s</t>
-  </si>
-  <si>
-    <t>PT PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/profissional</t>
-  </si>
-  <si>
-    <t>90 ms</t>
-  </si>
-  <si>
-    <t>4.3 s</t>
-  </si>
-  <si>
-    <t>RU PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/professional</t>
-  </si>
-  <si>
-    <t>8.9 s</t>
-  </si>
-  <si>
-    <t>130 ms</t>
-  </si>
-  <si>
-    <t>4.7 s</t>
-  </si>
-  <si>
-    <t>CN PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/professional</t>
-  </si>
-  <si>
-    <t>9.6 s</t>
-  </si>
-  <si>
-    <t>170 ms</t>
-  </si>
-  <si>
-    <t>6.1 s</t>
-  </si>
-  <si>
-    <t>VI PV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/vi/professional</t>
-  </si>
-  <si>
-    <t>1.6 s</t>
-  </si>
-  <si>
-    <t>6.9 s</t>
-  </si>
-  <si>
-    <t>EN CV Home Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/home</t>
-  </si>
-  <si>
-    <t>4.4 s</t>
-  </si>
-  <si>
-    <t>8.4 s</t>
-  </si>
-  <si>
-    <t>140 ms</t>
-  </si>
-  <si>
-    <t>EN CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/home</t>
-  </si>
-  <si>
-    <t>2.0 s</t>
-  </si>
-  <si>
-    <t>8.2 s</t>
-  </si>
-  <si>
-    <t>DE CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/heim</t>
-  </si>
-  <si>
-    <t>8.8 s</t>
-  </si>
-  <si>
-    <t>ES CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/hogar</t>
-  </si>
-  <si>
-    <t>FR CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/accueil</t>
-  </si>
-  <si>
-    <t>2.9 s</t>
-  </si>
-  <si>
-    <t>IT CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/casa</t>
-  </si>
-  <si>
-    <t>2.2 s</t>
-  </si>
-  <si>
-    <t>9.1 s</t>
-  </si>
-  <si>
-    <t>70 ms</t>
+    <t>FR PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/professional/blessures-empoisonnement/fractures/fractures-de-cheville</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>IT PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/professionale/traumi-avvelenamento/fratture/fratture-alla-caviglia</t>
+  </si>
+  <si>
+    <t>3.3 s</t>
+  </si>
+  <si>
+    <t>JA PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/professional/22-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%96%A2%E7%AF%80%E9%AA%A8%E6%8A%98</t>
+  </si>
+  <si>
+    <t>1.8 s</t>
+  </si>
+  <si>
+    <t>6.5 s</t>
+  </si>
+  <si>
+    <t>PT PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/profissional/les%C3%B5es-intoxica%C3%A7%C3%A3o/fraturas/fraturas-do-tornozelo</t>
+  </si>
+  <si>
+    <t>RU PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/professional/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%B3%D0%BE%D0%BB%D0%B5%D0%BD%D0%BE%D1%81%D1%82%D0%BE%D0%BF%D0%BD%D0%BE%D0%B3%D0%BE-%D1%81%D1%83%D1%81%D1%82%D0%B0%D0%B2%D0%B0</t>
+  </si>
+  <si>
+    <t>7.7 s</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>CN PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/professional/injuries-poisoning/fractures/ankle-fractures</t>
   </si>
   <si>
     <t>4.2 s</t>
   </si>
   <si>
-    <t>JA CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/home</t>
-  </si>
-  <si>
-    <t>6.7 s</t>
-  </si>
-  <si>
-    <t>5.4 s</t>
-  </si>
-  <si>
-    <t>KO CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ko/home</t>
-  </si>
-  <si>
-    <t>6.3 s</t>
-  </si>
-  <si>
-    <t>100 ms</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>3.3 s</t>
-  </si>
-  <si>
-    <t>PT CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/casa</t>
-  </si>
-  <si>
-    <t>RU CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/home</t>
-  </si>
-  <si>
-    <t>7.0 s</t>
-  </si>
-  <si>
-    <t>CN CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/home</t>
+    <t>10.8 s</t>
+  </si>
+  <si>
+    <t>VI PV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/vi/professional/ch%E1%BA%A5n-th%C6%B0%C6%A1ng-ng%E1%BB%99-%C4%91%E1%BB%99c/g%C3%A3y-x%C6%B0%C6%A1ng/g%C3%A3y-x%C6%B0%C6%A1ng-c%E1%BB%95-ch%C3%A2n</t>
+  </si>
+  <si>
+    <t>EN CV Ankle Fractures Merck</t>
+  </si>
+  <si>
+    <t>https://www.merckmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>EN CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
+  </si>
+  <si>
+    <t>DE CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/de/heim/verletzungen-und-vergiftung/frakturen/kn%C3%B6chelfrakturen</t>
+  </si>
+  <si>
+    <t>ES CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/es/hogar/traumatismos-y-envenenamientos/fracturas/fracturas-de-tobillo</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>FR CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/fr/accueil/l%C3%A9sions-et-intoxications/fractures/fractures-de-la-cheville</t>
+  </si>
+  <si>
+    <t>IT CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/it/casa/lesioni-e-avvelenamento/fratture/fratture-della-caviglia</t>
+  </si>
+  <si>
+    <t>JA CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ja-jp/home/25-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%A6%96%E3%81%AE%E9%AA%A8%E6%8A%98</t>
+  </si>
+  <si>
+    <t>KO CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ko/home/%EB%B6%80%EC%83%81-%EB%B0%8F-%EC%A4%91%EB%8F%85/%EA%B3%A8%EC%A0%88/%EB%B0%9C%EB%AA%A9-%EA%B3%A8%EC%A0%88</t>
+  </si>
+  <si>
+    <t>PT CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/pt/casa/les%C3%B5es-e-envenenamentos/fraturas/fraturas-do-tornozelo</t>
+  </si>
+  <si>
+    <t>RU CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ru/home/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%B8-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%BB%D0%BE%D0%B4%D1%8B%D0%B6%D0%BA%D0%B8</t>
+  </si>
+  <si>
+    <t>200 ms</t>
+  </si>
+  <si>
+    <t>CN CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.cn/home/injuries-and-poisoning/fractures/ankle-fractures</t>
   </si>
   <si>
     <t>6.0 s</t>
   </si>
   <si>
-    <t>4.9 s</t>
-  </si>
-  <si>
-    <t>AR CV Home</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ar/home</t>
+    <t>AR CV Ankle Fractures</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A5%D8%B5%D8%A7%D8%A8%D8%A7%D8%AA-%D9%88%D8%A7%D9%84%D8%AA%D9%91%D9%8E%D8%B3%D9%85%D9%91%D9%8F%D9%85/%D8%A7%D9%84%D9%83%D8%B3%D9%88%D8%B1/%D9%83%D9%8F%D8%B3%D9%88%D8%B1%D9%8F-%D8%A7%D9%84%D9%83%D8%A7%D8%AD%D9%84</t>
   </si>
   <si>
     <t>7.1 s</t>
-  </si>
-  <si>
-    <t>190 ms</t>
-  </si>
-  <si>
-    <t>3.6 s</t>
-  </si>
-  <si>
-    <t>EN PV Acne Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris?query=acne</t>
-  </si>
-  <si>
-    <t>7.9 s</t>
-  </si>
-  <si>
-    <t>300 ms</t>
-  </si>
-  <si>
-    <t>EN PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/en-jp/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>5.7 s</t>
-  </si>
-  <si>
-    <t>9.4 s</t>
-  </si>
-  <si>
-    <t>560 ms</t>
-  </si>
-  <si>
-    <t>6.4 s</t>
-  </si>
-  <si>
-    <t>DE PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/profi/erkrankungen-der-haut/akne-und-verwandte-erkrankungen/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>2.6 s</t>
-  </si>
-  <si>
-    <t>4.6 s</t>
-  </si>
-  <si>
-    <t>230 ms</t>
-  </si>
-  <si>
-    <t>5.3 s</t>
-  </si>
-  <si>
-    <t>ES PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/professional/trastornos-dermatol%C3%B3gicos/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9-vulgar</t>
-  </si>
-  <si>
-    <t>FR PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/professional/troubles-dermatologiques/acn%C3%A9-et-pathologies-apparent%C3%A9es/acn%C3%A9-vulgaire</t>
-  </si>
-  <si>
-    <t>IT PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/professionale/disturbi-dermatologici/acne-e-disturbi-correlati/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>4.1 s</t>
-  </si>
-  <si>
-    <t>210 ms</t>
-  </si>
-  <si>
-    <t>JA PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/professional/14-%E7%9A%AE%E8%86%9A%E7%96%BE%E6%82%A3/%E3%81%96%E7%98%A1%E3%81%8A%E3%82%88%E3%81%B3%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E5%B0%8B%E5%B8%B8%E6%80%A7%E3%81%96%E7%98%A1</t>
-  </si>
-  <si>
-    <t>6.8 s</t>
-  </si>
-  <si>
-    <t>PT PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/profissional/dist%C3%BArbios-dermatol%C3%B3gicos/acne-e-doen%C3%A7as-relacionadas/acne-vulgar</t>
-  </si>
-  <si>
-    <t>250 ms</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>5.1 s</t>
-  </si>
-  <si>
-    <t>RU PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/professional/%D0%B4%D0%B5%D1%80%D0%BC%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F-%D0%BF%D0%B0%D1%82%D0%BE%D0%BB%D0%BE%D0%B3%D0%B8%D1%8F/%D0%B0%D0%BA%D0%BD%D0%B5-%D0%B8-%D1%81%D0%B2%D1%8F%D0%B7%D0%B0%D0%BD%D0%BD%D1%8B%D0%B5-%D1%81-%D0%BD%D0%B8%D0%BC%D0%B8-%D1%80%D0%B0%D1%81%D1%81%D1%82%D1%80%D0%BE%D0%B9%D1%81%D1%82%D0%B2%D0%B0/%D0%B2%D1%83%D0%BB%D1%8C%D0%B3%D0%B0%D1%80%D0%BD%D1%8B%D0%B5-%D1%83%D0%B3%D1%80%D0%B8</t>
-  </si>
-  <si>
-    <t>320 ms</t>
-  </si>
-  <si>
-    <t>CN PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/professional/dermatologic-disorders/acne-and-related-disorders/acne-vulgaris</t>
-  </si>
-  <si>
-    <t>10.9 s</t>
-  </si>
-  <si>
-    <t>340 ms</t>
-  </si>
-  <si>
-    <t>VI PV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/vi/professional/r%E1%BB%91i-lo%E1%BA%A1n-da-li%E1%BB%85u/tr%E1%BB%A9ng-c%C3%A1-v%C3%A0-c%C3%A1c-b%E1%BB%87nh-l%C3%BD-li%C3%AAn-quan/tr%E1%BB%A9ng-c%C3%A1</t>
-  </si>
-  <si>
-    <t>EN CV Acne Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/home/skin-disorders/acne-and-related-disorders/acne?query=acne</t>
-  </si>
-  <si>
-    <t>10.3 s</t>
-  </si>
-  <si>
-    <t>310 ms</t>
-  </si>
-  <si>
-    <t>5.9 s</t>
-  </si>
-  <si>
-    <t>EN CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/home/skin-disorders/acne-and-related-disorders/acne</t>
-  </si>
-  <si>
-    <t>13.2 s</t>
-  </si>
-  <si>
-    <t>280 ms</t>
-  </si>
-  <si>
-    <t>5.5 s</t>
-  </si>
-  <si>
-    <t>DE CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/heim/hauterkrankungen/akne-und-verwandte-erkrankungen/akne</t>
-  </si>
-  <si>
-    <t>10.1 s</t>
-  </si>
-  <si>
-    <t>200 ms</t>
-  </si>
-  <si>
-    <t>10.5 s</t>
-  </si>
-  <si>
-    <t>ES CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/hogar/trastornos-de-la-piel/acn%C3%A9-y-trastornos-relacionados/acn%C3%A9</t>
-  </si>
-  <si>
-    <t>270 ms</t>
-  </si>
-  <si>
-    <t>FR CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/accueil/troubles-cutan%C3%A9s/acn%C3%A9-et-troubles-associ%C3%A9s/acn%C3%A9</t>
-  </si>
-  <si>
-    <t>9.2 s</t>
-  </si>
-  <si>
-    <t>IT CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/casa/patologie-della-cute/acne-e-disturbi-correlati/acne</t>
-  </si>
-  <si>
-    <t>2.4 s</t>
-  </si>
-  <si>
-    <t>11.3 s</t>
-  </si>
-  <si>
-    <t>JA CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/home/17-%E7%9A%AE%E8%86%9A%E3%81%AE%E7%97%85%E6%B0%97/%E3%81%AB%E3%81%8D%E3%81%B3%E3%81%A8%E9%96%A2%E9%80%A3%E7%96%BE%E6%82%A3/%E3%81%AB%E3%81%8D%E3%81%B3%EF%BC%88%E3%81%96%E7%98%A1%EF%BC%89</t>
-  </si>
-  <si>
-    <t>6.5 s</t>
-  </si>
-  <si>
-    <t>KO CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ko/home/%ED%94%BC%EB%B6%80-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84-%EB%B0%8F-%EA%B4%80%EB%A0%A8-%EC%A7%88%ED%99%98/%EC%97%AC%EB%93%9C%EB%A6%84</t>
-  </si>
-  <si>
-    <t>PT CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/casa/dist%C3%BArbios-da-pele/acne-e-dist%C3%BArbios-relacionados/acne</t>
-  </si>
-  <si>
-    <t>12.5 s</t>
-  </si>
-  <si>
-    <t>6.6 s</t>
-  </si>
-  <si>
-    <t>RU CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/home/%D0%BA%D0%BE%D0%B6%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C-%D0%B8-%D1%80%D0%BE%D0%B4%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B5-%D0%B7%D0%B0%D0%B1%D0%BE%D0%BB%D0%B5%D0%B2%D0%B0%D0%BD%D0%B8%D1%8F/%D1%83%D0%B3%D1%80%D0%B5%D0%B2%D0%B0%D1%8F-%D1%81%D1%8B%D0%BF%D1%8C</t>
-  </si>
-  <si>
-    <t>10.2 s</t>
-  </si>
-  <si>
-    <t>290 ms</t>
-  </si>
-  <si>
-    <t>CN CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/home/skin-disorders/acne-and-related-disorders/acne</t>
-  </si>
-  <si>
-    <t>5.2 s</t>
-  </si>
-  <si>
-    <t>AR CV Acne</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%A7%D9%84%D8%AC%D9%84%D8%AF%D9%8A%D9%91%D9%8E%D8%A9/%D8%AD%D8%A8%D9%91-%D8%A7%D9%84%D8%B4%D9%91%D9%8E%D8%A8%D8%A7%D8%A8-%D9%88%D8%A7%D9%84%D8%A7%D8%B6%D8%B7%D8%B1%D8%A7%D8%A8%D8%A7%D8%AA-%D8%B0%D9%8E%D8%A7%D8%AA-%D8%A7%D9%84%D8%B5%D9%91%D9%90%D9%84%D8%A9/%D8%AD%D8%A8-%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8-%D8%A7%D9%84%D8%B9%D8%AF%D9%91</t>
-  </si>
-  <si>
-    <t>3.7 s</t>
-  </si>
-  <si>
-    <t>8.3 s</t>
-  </si>
-  <si>
-    <t>390 ms</t>
-  </si>
-  <si>
-    <t>0.156</t>
-  </si>
-  <si>
-    <t>EN PV Ankle Fractures Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
-  </si>
-  <si>
-    <t>180 ms</t>
-  </si>
-  <si>
-    <t>4.8 s</t>
-  </si>
-  <si>
-    <t>EN PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/professional/injuries-poisoning/fractures/ankle-fractures</t>
-  </si>
-  <si>
-    <t>2.3 s</t>
-  </si>
-  <si>
-    <t>160 ms</t>
-  </si>
-  <si>
-    <t>DE PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/profi/verletzungen-vergiftungen/frakturen/sprunggelenkfrakturen</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
-    <t>ES PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/professional/lesiones-y-envenenamientos/fracturas/fracturas-del-tobillo</t>
-  </si>
-  <si>
-    <t>FR PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/professional/blessures-empoisonnement/fractures/fractures-de-cheville</t>
-  </si>
-  <si>
-    <t>IT PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/professionale/traumi-avvelenamento/fratture/fratture-alla-caviglia</t>
-  </si>
-  <si>
-    <t>JA PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/professional/22-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%96%A2%E7%AF%80%E9%AA%A8%E6%8A%98</t>
-  </si>
-  <si>
-    <t>1.8 s</t>
-  </si>
-  <si>
-    <t>PT PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/profissional/les%C3%B5es-intoxica%C3%A7%C3%A3o/fraturas/fraturas-do-tornozelo</t>
-  </si>
-  <si>
-    <t>RU PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/professional/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%B3%D0%BE%D0%BB%D0%B5%D0%BD%D0%BE%D1%81%D1%82%D0%BE%D0%BF%D0%BD%D0%BE%D0%B3%D0%BE-%D1%81%D1%83%D1%81%D1%82%D0%B0%D0%B2%D0%B0</t>
-  </si>
-  <si>
-    <t>CN PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/professional/injuries-poisoning/fractures/ankle-fractures</t>
-  </si>
-  <si>
-    <t>10.4 s</t>
-  </si>
-  <si>
-    <t>220 ms</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>VI PV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/vi/professional/ch%E1%BA%A5n-th%C6%B0%C6%A1ng-ng%E1%BB%99-%C4%91%E1%BB%99c/g%C3%A3y-x%C6%B0%C6%A1ng/g%C3%A3y-x%C6%B0%C6%A1ng-c%E1%BB%95-ch%C3%A2n</t>
-  </si>
-  <si>
-    <t>EN CV Ankle Fractures Merck</t>
-  </si>
-  <si>
-    <t>https://www.merckmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
-  </si>
-  <si>
-    <t>7.2 s</t>
-  </si>
-  <si>
-    <t>EN CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/home/injuries-and-poisoning/fractures/ankle-fractures?query=ankle%20fractures</t>
-  </si>
-  <si>
-    <t>DE CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/de/heim/verletzungen-und-vergiftung/frakturen/kn%C3%B6chelfrakturen</t>
-  </si>
-  <si>
-    <t>7.7 s</t>
-  </si>
-  <si>
-    <t>ES CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/es/hogar/traumatismos-y-envenenamientos/fracturas/fracturas-de-tobillo</t>
-  </si>
-  <si>
-    <t>FR CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/fr/accueil/l%C3%A9sions-et-intoxications/fractures/fractures-de-la-cheville</t>
-  </si>
-  <si>
-    <t>3.0 s</t>
-  </si>
-  <si>
-    <t>IT CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/it/casa/lesioni-e-avvelenamento/fratture/fratture-della-caviglia</t>
-  </si>
-  <si>
-    <t>0.011</t>
-  </si>
-  <si>
-    <t>JA CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ja-jp/home/25-%E5%A4%96%E5%82%B7%E3%81%A8%E4%B8%AD%E6%AF%92/%E9%AA%A8%E6%8A%98/%E8%B6%B3%E9%A6%96%E3%81%AE%E9%AA%A8%E6%8A%98</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t>KO CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ko/home/%EB%B6%80%EC%83%81-%EB%B0%8F-%EC%A4%91%EB%8F%85/%EA%B3%A8%EC%A0%88/%EB%B0%9C%EB%AA%A9-%EA%B3%A8%EC%A0%88</t>
-  </si>
-  <si>
-    <t>1.9 s</t>
-  </si>
-  <si>
-    <t>PT CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/pt/casa/les%C3%B5es-e-envenenamentos/fraturas/fraturas-do-tornozelo</t>
-  </si>
-  <si>
-    <t>RU CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ru/home/%D1%82%D1%80%D0%B0%D0%B2%D0%BC%D1%8B-%D0%B8-%D0%BE%D1%82%D1%80%D0%B0%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D1%8F/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B/%D0%BF%D0%B5%D1%80%D0%B5%D0%BB%D0%BE%D0%BC%D1%8B-%D0%BB%D0%BE%D0%B4%D1%8B%D0%B6%D0%BA%D0%B8</t>
-  </si>
-  <si>
-    <t>9.8 s</t>
-  </si>
-  <si>
-    <t>CN CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.cn/home/injuries-and-poisoning/fractures/ankle-fractures</t>
-  </si>
-  <si>
-    <t>AR CV Ankle Fractures</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/ar/home/%D8%A7%D9%84%D8%A5%D8%B5%D8%A7%D8%A8%D8%A7%D8%AA-%D9%88%D8%A7%D9%84%D8%AA%D9%91%D9%8E%D8%B3%D9%85%D9%91%D9%8F%D9%85/%D8%A7%D9%84%D9%83%D8%B3%D9%88%D8%B1/%D9%83%D9%8F%D8%B3%D9%88%D8%B1%D9%8F-%D8%A7%D9%84%D9%83%D8%A7%D8%AD%D9%84</t>
   </si>
 </sst>
 </file>
@@ -912,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -950,7 +968,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -988,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -1003,16 +1021,16 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1020,13 +1038,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -1038,19 +1056,19 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>0.72</v>
@@ -1076,19 +1094,19 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1114,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -1114,19 +1132,19 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
         <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1134,13 +1152,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -1152,19 +1170,19 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1172,13 +1190,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
       <c r="D9" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -1190,16 +1208,16 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
         <v>55</v>
@@ -1216,7 +1234,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -1228,16 +1246,16 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -1254,7 +1272,7 @@
         <v>62</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -1275,10 +1293,10 @@
         <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1286,13 +1304,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
@@ -1304,7 +1322,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
@@ -1313,10 +1331,10 @@
         <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1324,13 +1342,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
@@ -1342,19 +1360,19 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1368,7 +1386,7 @@
         <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
@@ -1380,19 +1398,19 @@
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
         <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1400,13 +1418,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
@@ -1418,19 +1436,19 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1438,13 +1456,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
       <c r="D16" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -1456,19 +1474,19 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -1476,13 +1494,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
@@ -1494,19 +1512,19 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1514,13 +1532,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -1532,19 +1550,19 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1552,13 +1570,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
@@ -1570,19 +1588,19 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1590,13 +1608,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
@@ -1608,19 +1626,19 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -1628,13 +1646,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
@@ -1646,19 +1664,19 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1666,13 +1684,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
@@ -1684,19 +1702,19 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -1704,10 +1722,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" t="n">
         <v>0.68</v>
@@ -1722,19 +1740,19 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -1742,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
@@ -1760,19 +1778,19 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -1780,13 +1798,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="E25" t="n">
         <v>1.0</v>
@@ -1798,19 +1816,19 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s">
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1818,37 +1836,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1856,13 +1874,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E27" t="n">
         <v>1.0</v>
@@ -1874,19 +1892,19 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1894,13 +1912,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D28" t="n">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="E28" t="n">
         <v>1.0</v>
@@ -1912,19 +1930,19 @@
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
         <v>131</v>
       </c>
-      <c r="K28" t="s">
-        <v>25</v>
-      </c>
       <c r="L28" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -1932,37 +1950,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
+      <c r="J29" t="s">
         <v>136</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -1976,7 +1994,7 @@
         <v>138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="E30" t="n">
         <v>0.95</v>
@@ -1988,19 +2006,19 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -2008,13 +2026,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E31" t="n">
         <v>0.96</v>
@@ -2026,19 +2044,19 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" t="s">
         <v>143</v>
       </c>
-      <c r="J31" t="s">
-        <v>131</v>
-      </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
@@ -2046,13 +2064,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="E32" t="n">
         <v>1.0</v>
@@ -2064,19 +2082,19 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -2084,13 +2102,13 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D33" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E33" t="n">
         <v>1.0</v>
@@ -2102,19 +2120,19 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34">
@@ -2122,13 +2140,13 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D34" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="E34" t="n">
         <v>0.88</v>
@@ -2140,19 +2158,19 @@
         <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
       </c>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
@@ -2160,13 +2178,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D35" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="n">
         <v>0.96</v>
@@ -2178,19 +2196,19 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K35" t="s">
         <v>25</v>
       </c>
       <c r="L35" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -2198,13 +2216,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D36" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="E36" t="n">
         <v>1.0</v>
@@ -2216,19 +2234,19 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="I36" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K36" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
@@ -2236,13 +2254,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D37" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="E37" t="n">
         <v>1.0</v>
@@ -2254,19 +2272,19 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="J37" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -2274,13 +2292,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D38" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="E38" t="n">
         <v>0.92</v>
@@ -2292,19 +2310,19 @@
         <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -2312,13 +2330,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D39" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="E39" t="n">
         <v>0.95</v>
@@ -2330,19 +2348,19 @@
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -2350,13 +2368,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D40" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="E40" t="n">
         <v>0.92</v>
@@ -2368,19 +2386,19 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -2388,13 +2406,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D41" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="E41" t="n">
         <v>0.92</v>
@@ -2406,19 +2424,19 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
         <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -2426,13 +2444,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="E42" t="n">
         <v>0.93</v>
@@ -2444,19 +2462,19 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
       </c>
       <c r="L42" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -2464,13 +2482,13 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D43" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="E43" t="n">
         <v>0.92</v>
@@ -2482,19 +2500,19 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="I43" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" t="s">
         <v>31</v>
-      </c>
-      <c r="L43" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="44">
@@ -2502,13 +2520,13 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D44" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="E44" t="n">
         <v>0.92</v>
@@ -2520,19 +2538,19 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="I44" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J44" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45">
@@ -2540,13 +2558,13 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D45" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="E45" t="n">
         <v>0.89</v>
@@ -2558,16 +2576,16 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="I45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J45" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L45" t="s">
         <v>110</v>
@@ -2578,13 +2596,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D46" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E46" t="n">
         <v>0.97</v>
@@ -2596,19 +2614,19 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="J46" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K46" t="s">
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47">
@@ -2616,13 +2634,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="E47" t="n">
         <v>0.88</v>
@@ -2634,19 +2652,19 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I47" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -2654,13 +2672,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D48" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="E48" t="n">
         <v>1.0</v>
@@ -2672,19 +2690,19 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49">
@@ -2692,13 +2710,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D49" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E49" t="n">
         <v>1.0</v>
@@ -2710,19 +2728,19 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50">
@@ -2730,13 +2748,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D50" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="E50" t="n">
         <v>0.97</v>
@@ -2748,19 +2766,19 @@
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -2768,13 +2786,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D51" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="E51" t="n">
         <v>0.97</v>
@@ -2786,19 +2804,19 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="J51" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -2806,13 +2824,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D52" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="E52" t="n">
         <v>1.0</v>
@@ -2824,19 +2842,19 @@
         <v>1.0</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="K52" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -2844,13 +2862,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="E53" t="n">
         <v>0.95</v>
@@ -2862,19 +2880,19 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="J53" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L53" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
@@ -2882,10 +2900,10 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D54" t="n">
         <v>0.71</v>
@@ -2900,19 +2918,19 @@
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I54" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s">
         <v>25</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55">
@@ -2920,13 +2938,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D55" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E55" t="n">
         <v>0.97</v>
@@ -2938,19 +2956,19 @@
         <v>1.0</v>
       </c>
       <c r="H55" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="L55" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2976,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D56" t="n">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="E56" t="n">
-        <v>0.97</v>
+        <v>1.0</v>
       </c>
       <c r="F56" t="n">
         <v>1.0</v>
@@ -2976,19 +2994,19 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
@@ -2996,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D57" t="n">
         <v>0.55</v>
@@ -3014,19 +3032,19 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="I57" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="J57" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="L57" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -3034,13 +3052,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D58" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E58" t="n">
         <v>0.93</v>
@@ -3052,19 +3070,19 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="I58" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s">
         <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -3072,13 +3090,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="E59" t="n">
         <v>1.0</v>
@@ -3090,19 +3108,19 @@
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="I59" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="L59" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
@@ -3110,13 +3128,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D60" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="E60" t="n">
         <v>1.0</v>
@@ -3128,19 +3146,19 @@
         <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I60" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K60" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -3148,13 +3166,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D61" t="n">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="E61" t="n">
         <v>0.92</v>
@@ -3166,19 +3184,19 @@
         <v>1.0</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I61" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L61" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62">
@@ -3186,13 +3204,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D62" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="E62" t="n">
         <v>0.95</v>
@@ -3204,19 +3222,19 @@
         <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I62" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="J62" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="L62" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
@@ -3224,13 +3242,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D63" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="E63" t="n">
         <v>0.92</v>
@@ -3242,19 +3260,19 @@
         <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L63" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
@@ -3262,13 +3280,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D64" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E64" t="n">
         <v>0.92</v>
@@ -3280,19 +3298,19 @@
         <v>1.0</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="K64" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="L64" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -3300,37 +3318,37 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D65" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="E65" t="n">
         <v>0.96</v>
       </c>
       <c r="F65" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="G65" t="n">
         <v>1.0</v>
       </c>
       <c r="H65" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="J65" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="L65" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
@@ -3338,13 +3356,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D66" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="E66" t="n">
         <v>0.91</v>
@@ -3356,19 +3374,19 @@
         <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="I66" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="K66" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -3376,13 +3394,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D67" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E67" t="n">
         <v>0.92</v>
@@ -3394,19 +3412,19 @@
         <v>1.0</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I67" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68">
@@ -3414,13 +3432,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="E68" t="n">
         <v>0.88</v>
@@ -3432,19 +3450,19 @@
         <v>1.0</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="I68" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -3452,13 +3470,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D69" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E69" t="n">
         <v>0.96</v>
@@ -3470,19 +3488,19 @@
         <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="J69" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s">
         <v>25</v>
       </c>
       <c r="L69" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70">
@@ -3490,37 +3508,37 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D70" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="E70" t="n">
         <v>0.88</v>
       </c>
       <c r="F70" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="G70" t="n">
         <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="J70" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L70" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
